--- a/002.Artificial_Intelligence/总.xlsx
+++ b/002.Artificial_Intelligence/总.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555"/>
+    <workbookView windowWidth="20752" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01.数据预处理" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="02.线性回归" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,9 +28,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">数据预处理
 import </t>
     </r>
@@ -129,6 +136,33 @@
   <si>
     <t xml:space="preserve"> 将"字符串"转成数值类型
 （按字母顺序）</t>
+  </si>
+  <si>
+    <t>拟合</t>
+  </si>
+  <si>
+    <t>假设我有一组数据，我想用一个 "线性模型" 来表达这组数据，这个过程就叫 "拟合"</t>
+  </si>
+  <si>
+    <t>线性模型</t>
+  </si>
+  <si>
+    <t>一个（或多个）自变量对另一个因变量的影响是呈简单的比例、线性关系。</t>
+  </si>
+  <si>
+    <t>损失函数</t>
+  </si>
+  <si>
+    <t>度量 "真实值（由样本中给出）" 和 "预测值（由模型算出）" 之间的差异</t>
+  </si>
+  <si>
+    <t>∑(Yi - Yi')^2 / n</t>
+  </si>
+  <si>
+    <t>矩阵乘法</t>
+  </si>
+  <si>
+    <t>行乘以列，对应位置再相加。</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1130,7 @@
   <sheetPr/>
   <dimension ref="B5:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1124,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="40.5" spans="2:5">
+    <row r="6" ht="27" spans="2:5">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -1200,14 +1234,57 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="F6:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="19.8495575221239" customWidth="1"/>
+    <col min="6" max="6" width="26.4247787610619" customWidth="1"/>
+    <col min="7" max="7" width="77.7256637168142" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="6:7">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
